--- a/FNC-22-03-02.xlsx
+++ b/FNC-22-03-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etudiant\Desktop\stage_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF86BB8-05E2-4C0E-B205-E575AA311715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B98E1-5F18-4A2D-BF93-6F1DBB778790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4F9B4E53-EF24-4107-999D-366C8550229C}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="221">
   <si>
     <t>Checklist 
 Opérations liées à la Réception de Marchandises</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t>Insert date</t>
   </si>
   <si>
     <r>
@@ -1538,6 +1535,52 @@
   </si>
   <si>
     <t>ishikawa</t>
+  </si>
+  <si>
+    <t>Ask supplier to send to Hydro Systems France SAS the test and inspection report</t>
+  </si>
+  <si>
+    <t>Notify the supplier that this test and inspection report is required on each order, even if it is not specified in the order</t>
+  </si>
+  <si>
+    <t>Improve Purchase Order and add the requirement of test and inspection report</t>
+  </si>
+  <si>
+    <t>P.Puerta</t>
+  </si>
+  <si>
+    <t>Katharina Schüle</t>
+  </si>
+  <si>
+    <t>G.Ourmières</t>
+  </si>
+  <si>
+    <t>Augmentation des Zone Quanrantaine et Incoming,+ Identification</t>
+  </si>
+  <si>
+    <t>Contacter B.Ourmières pour la communication de l’arrêt</t>
+  </si>
+  <si>
+    <t>Demande l’accord au client pour prélever la pièce sur le set en attente de commissioning</t>
+  </si>
+  <si>
+    <t>Prélever la pièce sur le set en attente de commissioning</t>
+  </si>
+  <si>
+    <t>F.Galve
+C.Auriol</t>
+  </si>
+  <si>
+    <t>C.Kowal</t>
+  </si>
+  <si>
+    <t>Quality Managment Department</t>
+  </si>
+  <si>
+    <t>N.HAAS</t>
+  </si>
+  <si>
+    <t>Pour assurer le centrage : -Modification / amélioration du tréteau -Ou mise en place de butée de centrage sur tréteau</t>
   </si>
 </sst>
 </file>
@@ -7225,7 +7268,7 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>144501</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="[0]!_xludf.save" textlink="">
+    <xdr:sp macro="[0]!save" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Rectangle : coins arrondis 23">
           <a:extLst>
@@ -7886,7 +7929,7 @@
       <c r="A2" s="65"/>
       <c r="B2" s="65"/>
       <c r="C2" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
@@ -7921,13 +7964,13 @@
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="21"/>
       <c r="F5" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="34">
@@ -7944,13 +7987,13 @@
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="35"/>
@@ -7965,7 +8008,7 @@
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="32"/>
@@ -8019,10 +8062,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="1"/>
@@ -8033,7 +8076,7 @@
     </row>
     <row r="11" spans="1:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -8059,7 +8102,7 @@
     </row>
     <row r="12" spans="1:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
@@ -8085,7 +8128,7 @@
     </row>
     <row r="13" spans="1:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
@@ -8111,7 +8154,7 @@
     </row>
     <row r="14" spans="1:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -8137,7 +8180,7 @@
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -8163,7 +8206,7 @@
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -8189,7 +8232,7 @@
     </row>
     <row r="17" spans="2:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
@@ -8215,7 +8258,7 @@
     </row>
     <row r="18" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -8241,7 +8284,7 @@
     </row>
     <row r="19" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -8261,7 +8304,7 @@
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -8281,7 +8324,7 @@
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -8301,7 +8344,7 @@
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -8321,7 +8364,7 @@
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="77"/>
@@ -8358,7 +8401,7 @@
     </row>
     <row r="25" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="73"/>
       <c r="D25" s="74"/>
@@ -9088,17 +9131,17 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="83"/>
       <c r="E5" s="87"/>
       <c r="F5" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="87"/>
       <c r="J5" s="89" t="s">
@@ -9108,17 +9151,17 @@
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="86"/>
       <c r="E6" s="88"/>
       <c r="F6" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="88"/>
       <c r="H6" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" s="88"/>
       <c r="J6" s="90"/>
@@ -9138,7 +9181,7 @@
     </row>
     <row r="8" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
@@ -9152,7 +9195,7 @@
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -9190,10 +9233,10 @@
     </row>
     <row r="12" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="99"/>
       <c r="E12" s="100"/>
@@ -9212,10 +9255,10 @@
     </row>
     <row r="13" spans="2:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="101"/>
       <c r="E13" s="102"/>
@@ -9311,8 +9354,8 @@
   </sheetPr>
   <dimension ref="A2:AV71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AM76" sqref="AM76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66:AE66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9355,7 +9398,7 @@
   <sheetData>
     <row r="2" spans="1:48" s="11" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="229" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="229"/>
       <c r="C2" s="229"/>
@@ -9398,11 +9441,11 @@
       <c r="AL2" s="221"/>
       <c r="AM2" s="221"/>
       <c r="AN2" s="225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO2" s="225"/>
       <c r="AP2" s="228" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ2" s="228"/>
       <c r="AR2" s="228"/>
@@ -9450,7 +9493,7 @@
       <c r="AL3" s="221"/>
       <c r="AM3" s="221"/>
       <c r="AN3" s="225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO3" s="225"/>
       <c r="AP3" s="228" t="s">
@@ -9504,7 +9547,7 @@
       <c r="AL4" s="222"/>
       <c r="AM4" s="222"/>
       <c r="AN4" s="225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AO4" s="225"/>
       <c r="AP4" s="228">
@@ -9556,7 +9599,7 @@
       <c r="AL5" s="223"/>
       <c r="AM5" s="223"/>
       <c r="AN5" s="226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO5" s="226"/>
       <c r="AP5" s="227" t="s">
@@ -9619,7 +9662,7 @@
     </row>
     <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="160"/>
       <c r="D7" s="160"/>
@@ -9686,7 +9729,7 @@
     </row>
     <row r="8" spans="1:48" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="162"/>
       <c r="D8" s="162"/>
@@ -9737,7 +9780,7 @@
     </row>
     <row r="9" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="114"/>
       <c r="D9" s="114"/>
@@ -9790,13 +9833,13 @@
     </row>
     <row r="10" spans="1:48" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="155" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="149"/>
       <c r="D10" s="149"/>
       <c r="E10" s="149"/>
       <c r="F10" s="156" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="156"/>
       <c r="H10" s="156"/>
@@ -9811,7 +9854,7 @@
       <c r="Q10" s="156"/>
       <c r="R10" s="156"/>
       <c r="S10" s="156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T10" s="156"/>
       <c r="U10" s="156"/>
@@ -9821,7 +9864,7 @@
       <c r="Y10" s="156"/>
       <c r="Z10" s="156"/>
       <c r="AA10" s="157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB10" s="157"/>
       <c r="AC10" s="157"/>
@@ -9847,7 +9890,7 @@
     </row>
     <row r="11" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="168"/>
       <c r="D11" s="168"/>
@@ -9881,7 +9924,7 @@
       <c r="AF11" s="168"/>
       <c r="AG11" s="168"/>
       <c r="AH11" s="142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI11" s="142"/>
       <c r="AJ11" s="142"/>
@@ -9932,7 +9975,7 @@
       <c r="AF12" s="168"/>
       <c r="AG12" s="168"/>
       <c r="AH12" s="144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI12" s="144"/>
       <c r="AJ12" s="144"/>
@@ -9952,7 +9995,7 @@
     <row r="13" spans="1:48" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="146"/>
       <c r="E13" s="146"/>
@@ -9985,7 +10028,7 @@
       <c r="AF13" s="139"/>
       <c r="AG13" s="139"/>
       <c r="AH13" s="146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI13" s="146"/>
       <c r="AJ13" s="146"/>
@@ -10045,7 +10088,7 @@
     </row>
     <row r="15" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="114"/>
       <c r="D15" s="114"/>
@@ -10054,14 +10097,14 @@
       <c r="G15" s="114"/>
       <c r="H15" s="114"/>
       <c r="I15" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J15" s="116"/>
       <c r="K15" s="116"/>
       <c r="L15" s="116"/>
       <c r="M15" s="116"/>
       <c r="N15" s="116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O15" s="116"/>
       <c r="P15" s="116"/>
@@ -10073,7 +10116,7 @@
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y15" s="138"/>
       <c r="Z15" s="138"/>
@@ -10089,7 +10132,7 @@
       <c r="AJ15" s="138"/>
       <c r="AK15" s="138"/>
       <c r="AL15" s="139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM15" s="139"/>
       <c r="AN15" s="139"/>
@@ -10107,14 +10150,14 @@
       <c r="G16" s="114"/>
       <c r="H16" s="114"/>
       <c r="I16" s="140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="140"/>
       <c r="K16" s="140"/>
       <c r="L16" s="140"/>
       <c r="M16" s="140"/>
       <c r="N16" s="140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O16" s="140"/>
       <c r="P16" s="140"/>
@@ -10142,7 +10185,7 @@
       <c r="AL16" s="139"/>
       <c r="AM16" s="139"/>
       <c r="AN16" s="141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO16" s="141"/>
       <c r="AP16" s="141"/>
@@ -10241,7 +10284,7 @@
     </row>
     <row r="19" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="127"/>
       <c r="D19" s="127"/>
@@ -10288,14 +10331,14 @@
     </row>
     <row r="20" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="120"/>
       <c r="D20" s="120"/>
       <c r="E20" s="120"/>
       <c r="F20" s="121"/>
       <c r="G20" s="119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="120"/>
       <c r="I20" s="120"/>
@@ -10322,7 +10365,7 @@
       <c r="AD20" s="120"/>
       <c r="AE20" s="121"/>
       <c r="AF20" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG20" s="120"/>
       <c r="AH20" s="120"/>
@@ -10334,18 +10377,22 @@
       <c r="AN20" s="120"/>
       <c r="AO20" s="121"/>
       <c r="AP20" s="119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ20" s="120"/>
       <c r="AR20" s="121"/>
     </row>
     <row r="21" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="132"/>
+      <c r="B21" s="132" t="s">
+        <v>122</v>
+      </c>
       <c r="C21" s="133"/>
       <c r="D21" s="133"/>
       <c r="E21" s="133"/>
       <c r="F21" s="134"/>
-      <c r="G21" s="132"/>
+      <c r="G21" s="132" t="s">
+        <v>206</v>
+      </c>
       <c r="H21" s="133"/>
       <c r="I21" s="133"/>
       <c r="J21" s="133"/>
@@ -10370,7 +10417,9 @@
       <c r="AC21" s="133"/>
       <c r="AD21" s="133"/>
       <c r="AE21" s="134"/>
-      <c r="AF21" s="132"/>
+      <c r="AF21" s="132" t="s">
+        <v>210</v>
+      </c>
       <c r="AG21" s="133"/>
       <c r="AH21" s="133"/>
       <c r="AI21" s="133"/>
@@ -10380,19 +10429,23 @@
       <c r="AM21" s="133"/>
       <c r="AN21" s="133"/>
       <c r="AO21" s="134"/>
-      <c r="AP21" s="135" t="s">
-        <v>15</v>
+      <c r="AP21" s="135">
+        <v>44616</v>
       </c>
       <c r="AQ21" s="136"/>
       <c r="AR21" s="137"/>
     </row>
     <row r="22" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="122"/>
+      <c r="B22" s="122" t="s">
+        <v>122</v>
+      </c>
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
       <c r="E22" s="123"/>
       <c r="F22" s="124"/>
-      <c r="G22" s="122"/>
+      <c r="G22" s="122" t="s">
+        <v>207</v>
+      </c>
       <c r="H22" s="123"/>
       <c r="I22" s="123"/>
       <c r="J22" s="123"/>
@@ -10417,7 +10470,9 @@
       <c r="AC22" s="123"/>
       <c r="AD22" s="123"/>
       <c r="AE22" s="124"/>
-      <c r="AF22" s="122"/>
+      <c r="AF22" s="122" t="s">
+        <v>209</v>
+      </c>
       <c r="AG22" s="123"/>
       <c r="AH22" s="123"/>
       <c r="AI22" s="123"/>
@@ -10427,19 +10482,23 @@
       <c r="AM22" s="123"/>
       <c r="AN22" s="123"/>
       <c r="AO22" s="124"/>
-      <c r="AP22" s="174" t="s">
-        <v>15</v>
+      <c r="AP22" s="174">
+        <v>44615</v>
       </c>
       <c r="AQ22" s="175"/>
       <c r="AR22" s="176"/>
     </row>
     <row r="23" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="122"/>
+      <c r="B23" s="122" t="s">
+        <v>123</v>
+      </c>
       <c r="C23" s="123"/>
       <c r="D23" s="123"/>
       <c r="E23" s="123"/>
       <c r="F23" s="124"/>
-      <c r="G23" s="122"/>
+      <c r="G23" s="122" t="s">
+        <v>208</v>
+      </c>
       <c r="H23" s="123"/>
       <c r="I23" s="123"/>
       <c r="J23" s="123"/>
@@ -10464,7 +10523,9 @@
       <c r="AC23" s="123"/>
       <c r="AD23" s="123"/>
       <c r="AE23" s="124"/>
-      <c r="AF23" s="122"/>
+      <c r="AF23" s="122" t="s">
+        <v>211</v>
+      </c>
       <c r="AG23" s="123"/>
       <c r="AH23" s="123"/>
       <c r="AI23" s="123"/>
@@ -10474,15 +10535,15 @@
       <c r="AM23" s="123"/>
       <c r="AN23" s="123"/>
       <c r="AO23" s="124"/>
-      <c r="AP23" s="174" t="s">
-        <v>15</v>
+      <c r="AP23" s="174">
+        <v>44622</v>
       </c>
       <c r="AQ23" s="175"/>
       <c r="AR23" s="176"/>
     </row>
     <row r="24" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="118"/>
       <c r="D24" s="118"/>
@@ -10507,7 +10568,7 @@
       <c r="W24" s="118"/>
       <c r="X24" s="118"/>
       <c r="Y24" s="169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z24" s="169"/>
       <c r="AA24" s="169"/>
@@ -10522,7 +10583,7 @@
       <c r="AJ24" s="169"/>
       <c r="AK24" s="169"/>
       <c r="AL24" s="169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM24" s="169"/>
       <c r="AN24" s="169"/>
@@ -10533,7 +10594,7 @@
     </row>
     <row r="25" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="161" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="162"/>
       <c r="D25" s="162"/>
@@ -10580,12 +10641,12 @@
     </row>
     <row r="26" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="149"/>
       <c r="D26" s="149"/>
       <c r="E26" s="147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="147"/>
       <c r="G26" s="147"/>
@@ -10601,7 +10662,7 @@
       <c r="Q26" s="147"/>
       <c r="R26" s="147"/>
       <c r="S26" s="147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T26" s="147"/>
       <c r="U26" s="147"/>
@@ -10613,7 +10674,7 @@
       <c r="AA26" s="147"/>
       <c r="AB26" s="147"/>
       <c r="AC26" s="147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD26" s="147"/>
       <c r="AE26" s="147"/>
@@ -10639,7 +10700,7 @@
       <c r="F27" s="139"/>
       <c r="G27" s="139"/>
       <c r="H27" s="173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" s="173"/>
       <c r="J27" s="173"/>
@@ -10653,7 +10714,7 @@
       <c r="R27" s="180"/>
       <c r="S27" s="6"/>
       <c r="T27" s="181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U27" s="181"/>
       <c r="V27" s="181"/>
@@ -10666,7 +10727,7 @@
       <c r="AC27" s="139"/>
       <c r="AD27" s="139"/>
       <c r="AE27" s="181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF27" s="181"/>
       <c r="AG27" s="181"/>
@@ -10774,7 +10835,7 @@
     </row>
     <row r="30" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="127"/>
       <c r="D30" s="127"/>
@@ -10821,7 +10882,7 @@
     </row>
     <row r="31" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="217" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="218"/>
       <c r="D31" s="218"/>
@@ -10831,7 +10892,7 @@
       <c r="H31" s="218"/>
       <c r="I31" s="218"/>
       <c r="J31" s="177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K31" s="177"/>
       <c r="L31" s="177"/>
@@ -10839,7 +10900,7 @@
       <c r="N31" s="177"/>
       <c r="O31" s="177"/>
       <c r="P31" s="177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="177"/>
       <c r="R31" s="177"/>
@@ -10847,7 +10908,7 @@
       <c r="T31" s="177"/>
       <c r="U31" s="177"/>
       <c r="V31" s="177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W31" s="177"/>
       <c r="X31" s="177"/>
@@ -10861,7 +10922,7 @@
       <c r="AF31" s="177"/>
       <c r="AG31" s="177"/>
       <c r="AH31" s="177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI31" s="177"/>
       <c r="AJ31" s="177"/>
@@ -10884,7 +10945,7 @@
       <c r="H32" s="218"/>
       <c r="I32" s="218"/>
       <c r="J32" s="179" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="179"/>
       <c r="L32" s="179"/>
@@ -10892,7 +10953,7 @@
       <c r="N32" s="179"/>
       <c r="O32" s="179"/>
       <c r="P32" s="179" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q32" s="179"/>
       <c r="R32" s="179"/>
@@ -10900,7 +10961,7 @@
       <c r="T32" s="179"/>
       <c r="U32" s="179"/>
       <c r="V32" s="179" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W32" s="179"/>
       <c r="X32" s="179"/>
@@ -11019,7 +11080,7 @@
     </row>
     <row r="35" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="127"/>
       <c r="D35" s="127"/>
@@ -11066,7 +11127,7 @@
     </row>
     <row r="36" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="168"/>
       <c r="D36" s="168"/>
@@ -11114,7 +11175,7 @@
     <row r="37" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="142"/>
       <c r="E37" s="142"/>
@@ -11162,7 +11223,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="3"/>
       <c r="D38" s="182" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E38" s="182"/>
       <c r="F38" s="182"/>
@@ -11207,7 +11268,7 @@
     </row>
     <row r="39" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="168"/>
       <c r="D39" s="168"/>
@@ -11218,7 +11279,7 @@
       <c r="I39" s="168"/>
       <c r="J39" s="168"/>
       <c r="K39" s="219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" s="219"/>
       <c r="M39" s="219"/>
@@ -11228,7 +11289,7 @@
       <c r="Q39" s="219"/>
       <c r="R39" s="219"/>
       <c r="S39" s="219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T39" s="219"/>
       <c r="U39" s="219"/>
@@ -11237,7 +11298,7 @@
       <c r="X39" s="219"/>
       <c r="Y39" s="219"/>
       <c r="Z39" s="219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA39" s="219"/>
       <c r="AB39" s="219"/>
@@ -11253,7 +11314,7 @@
       <c r="AL39" s="219"/>
       <c r="AM39" s="219"/>
       <c r="AN39" s="157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO39" s="157"/>
       <c r="AP39" s="157"/>
@@ -11263,7 +11324,7 @@
     <row r="40" spans="2:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="193"/>
       <c r="C40" s="149" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="149"/>
       <c r="E40" s="149"/>
@@ -11273,7 +11334,7 @@
       <c r="I40" s="149"/>
       <c r="J40" s="149"/>
       <c r="K40" s="194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L40" s="194"/>
       <c r="M40" s="194"/>
@@ -11312,7 +11373,7 @@
     <row r="41" spans="2:44" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="193"/>
       <c r="C41" s="162" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="162"/>
       <c r="E41" s="162"/>
@@ -11448,7 +11509,7 @@
     </row>
     <row r="44" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="167" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="168"/>
       <c r="D44" s="168"/>
@@ -11495,7 +11556,7 @@
     </row>
     <row r="45" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="186"/>
       <c r="D45" s="186"/>
@@ -11511,7 +11572,7 @@
       <c r="N45" s="186"/>
       <c r="O45" s="187"/>
       <c r="P45" s="185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q45" s="188"/>
       <c r="R45" s="188"/>
@@ -11530,7 +11591,7 @@
       <c r="AE45" s="188"/>
       <c r="AF45" s="187"/>
       <c r="AG45" s="185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH45" s="188"/>
       <c r="AI45" s="188"/>
@@ -11630,7 +11691,7 @@
       <c r="AM47" s="201"/>
       <c r="AN47" s="201"/>
       <c r="AO47" s="202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AP47" s="202"/>
       <c r="AQ47" s="202"/>
@@ -11638,7 +11699,7 @@
     </row>
     <row r="48" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="186"/>
       <c r="D48" s="186"/>
@@ -11654,7 +11715,7 @@
       <c r="N48" s="186"/>
       <c r="O48" s="187"/>
       <c r="P48" s="185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="188"/>
       <c r="R48" s="188"/>
@@ -11673,7 +11734,7 @@
       <c r="AE48" s="188"/>
       <c r="AF48" s="187"/>
       <c r="AG48" s="185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH48" s="188"/>
       <c r="AI48" s="188"/>
@@ -11734,7 +11795,7 @@
     </row>
     <row r="50" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="155" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="149"/>
       <c r="D50" s="149"/>
@@ -11747,7 +11808,7 @@
       <c r="K50" s="149"/>
       <c r="L50" s="149"/>
       <c r="M50" s="156" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N50" s="156"/>
       <c r="O50" s="156"/>
@@ -11783,7 +11844,7 @@
     </row>
     <row r="51" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="162"/>
       <c r="D51" s="162"/>
@@ -11920,7 +11981,7 @@
     </row>
     <row r="54" spans="2:44" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="127"/>
       <c r="D54" s="127"/>
@@ -11967,7 +12028,7 @@
     </row>
     <row r="55" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="204" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="205"/>
       <c r="D55" s="205"/>
@@ -11983,7 +12044,7 @@
       <c r="N55" s="205"/>
       <c r="O55" s="205"/>
       <c r="P55" s="206" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q55" s="207"/>
       <c r="R55" s="207"/>
@@ -12002,7 +12063,7 @@
       <c r="AE55" s="207"/>
       <c r="AF55" s="207"/>
       <c r="AG55" s="206" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH55" s="207"/>
       <c r="AI55" s="207"/>
@@ -12019,7 +12080,7 @@
     <row r="56" spans="2:44" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="10"/>
       <c r="C56" s="209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="209"/>
       <c r="E56" s="209"/>
@@ -12036,7 +12097,7 @@
       <c r="P56" s="147"/>
       <c r="Q56" s="147"/>
       <c r="R56" s="210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S56" s="210"/>
       <c r="T56" s="210"/>
@@ -12055,7 +12116,7 @@
       <c r="AG56" s="147"/>
       <c r="AH56" s="147"/>
       <c r="AI56" s="181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ56" s="181"/>
       <c r="AK56" s="181"/>
@@ -12159,7 +12220,7 @@
     </row>
     <row r="59" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="211" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="212"/>
       <c r="D59" s="212"/>
@@ -12206,7 +12267,7 @@
     </row>
     <row r="60" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="214" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="215"/>
       <c r="D60" s="215"/>
@@ -12253,14 +12314,14 @@
     </row>
     <row r="61" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="120"/>
       <c r="D61" s="120"/>
       <c r="E61" s="120"/>
       <c r="F61" s="121"/>
       <c r="G61" s="119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" s="120"/>
       <c r="I61" s="120"/>
@@ -12287,7 +12348,7 @@
       <c r="AD61" s="120"/>
       <c r="AE61" s="121"/>
       <c r="AF61" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG61" s="120"/>
       <c r="AH61" s="120"/>
@@ -12299,18 +12360,22 @@
       <c r="AN61" s="120"/>
       <c r="AO61" s="121"/>
       <c r="AP61" s="119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ61" s="120"/>
       <c r="AR61" s="121"/>
     </row>
     <row r="62" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="132"/>
+      <c r="B62" s="132" t="s">
+        <v>129</v>
+      </c>
       <c r="C62" s="133"/>
       <c r="D62" s="133"/>
       <c r="E62" s="133"/>
       <c r="F62" s="134"/>
-      <c r="G62" s="132"/>
+      <c r="G62" s="132" t="s">
+        <v>212</v>
+      </c>
       <c r="H62" s="133"/>
       <c r="I62" s="133"/>
       <c r="J62" s="133"/>
@@ -12335,7 +12400,9 @@
       <c r="AC62" s="133"/>
       <c r="AD62" s="133"/>
       <c r="AE62" s="134"/>
-      <c r="AF62" s="132"/>
+      <c r="AF62" s="132" t="s">
+        <v>209</v>
+      </c>
       <c r="AG62" s="133"/>
       <c r="AH62" s="133"/>
       <c r="AI62" s="133"/>
@@ -12345,19 +12412,23 @@
       <c r="AM62" s="133"/>
       <c r="AN62" s="133"/>
       <c r="AO62" s="134"/>
-      <c r="AP62" s="135" t="s">
-        <v>15</v>
+      <c r="AP62" s="135">
+        <v>44664</v>
       </c>
       <c r="AQ62" s="136"/>
       <c r="AR62" s="137"/>
     </row>
     <row r="63" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="132"/>
+      <c r="B63" s="132" t="s">
+        <v>128</v>
+      </c>
       <c r="C63" s="133"/>
       <c r="D63" s="133"/>
       <c r="E63" s="133"/>
       <c r="F63" s="134"/>
-      <c r="G63" s="132"/>
+      <c r="G63" s="132" t="s">
+        <v>213</v>
+      </c>
       <c r="H63" s="133"/>
       <c r="I63" s="133"/>
       <c r="J63" s="133"/>
@@ -12382,7 +12453,9 @@
       <c r="AC63" s="133"/>
       <c r="AD63" s="133"/>
       <c r="AE63" s="134"/>
-      <c r="AF63" s="132"/>
+      <c r="AF63" s="132" t="s">
+        <v>216</v>
+      </c>
       <c r="AG63" s="133"/>
       <c r="AH63" s="133"/>
       <c r="AI63" s="133"/>
@@ -12392,19 +12465,23 @@
       <c r="AM63" s="133"/>
       <c r="AN63" s="133"/>
       <c r="AO63" s="134"/>
-      <c r="AP63" s="135" t="s">
-        <v>15</v>
+      <c r="AP63" s="135">
+        <v>44665</v>
       </c>
       <c r="AQ63" s="136"/>
       <c r="AR63" s="137"/>
     </row>
     <row r="64" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="132"/>
+      <c r="B64" s="132" t="s">
+        <v>133</v>
+      </c>
       <c r="C64" s="133"/>
       <c r="D64" s="133"/>
       <c r="E64" s="133"/>
       <c r="F64" s="134"/>
-      <c r="G64" s="132"/>
+      <c r="G64" s="132" t="s">
+        <v>214</v>
+      </c>
       <c r="H64" s="133"/>
       <c r="I64" s="133"/>
       <c r="J64" s="133"/>
@@ -12429,7 +12506,9 @@
       <c r="AC64" s="133"/>
       <c r="AD64" s="133"/>
       <c r="AE64" s="134"/>
-      <c r="AF64" s="132"/>
+      <c r="AF64" s="132" t="s">
+        <v>217</v>
+      </c>
       <c r="AG64" s="133"/>
       <c r="AH64" s="133"/>
       <c r="AI64" s="133"/>
@@ -12439,19 +12518,23 @@
       <c r="AM64" s="133"/>
       <c r="AN64" s="133"/>
       <c r="AO64" s="134"/>
-      <c r="AP64" s="135" t="s">
-        <v>15</v>
+      <c r="AP64" s="135">
+        <v>44666</v>
       </c>
       <c r="AQ64" s="136"/>
       <c r="AR64" s="137"/>
     </row>
     <row r="65" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="132"/>
+      <c r="B65" s="132" t="s">
+        <v>132</v>
+      </c>
       <c r="C65" s="133"/>
       <c r="D65" s="133"/>
       <c r="E65" s="133"/>
       <c r="F65" s="134"/>
-      <c r="G65" s="132"/>
+      <c r="G65" s="132" t="s">
+        <v>215</v>
+      </c>
       <c r="H65" s="133"/>
       <c r="I65" s="133"/>
       <c r="J65" s="133"/>
@@ -12476,7 +12559,9 @@
       <c r="AC65" s="133"/>
       <c r="AD65" s="133"/>
       <c r="AE65" s="134"/>
-      <c r="AF65" s="132"/>
+      <c r="AF65" s="132" t="s">
+        <v>218</v>
+      </c>
       <c r="AG65" s="133"/>
       <c r="AH65" s="133"/>
       <c r="AI65" s="133"/>
@@ -12486,19 +12571,23 @@
       <c r="AM65" s="133"/>
       <c r="AN65" s="133"/>
       <c r="AO65" s="134"/>
-      <c r="AP65" s="135" t="s">
-        <v>15</v>
+      <c r="AP65" s="135">
+        <v>44667</v>
       </c>
       <c r="AQ65" s="136"/>
       <c r="AR65" s="137"/>
     </row>
     <row r="66" spans="2:44" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="132"/>
+      <c r="B66" s="132" t="s">
+        <v>134</v>
+      </c>
       <c r="C66" s="133"/>
       <c r="D66" s="133"/>
       <c r="E66" s="133"/>
       <c r="F66" s="134"/>
-      <c r="G66" s="132"/>
+      <c r="G66" s="132" t="s">
+        <v>220</v>
+      </c>
       <c r="H66" s="133"/>
       <c r="I66" s="133"/>
       <c r="J66" s="133"/>
@@ -12523,7 +12612,9 @@
       <c r="AC66" s="133"/>
       <c r="AD66" s="133"/>
       <c r="AE66" s="134"/>
-      <c r="AF66" s="132"/>
+      <c r="AF66" s="132" t="s">
+        <v>219</v>
+      </c>
       <c r="AG66" s="133"/>
       <c r="AH66" s="133"/>
       <c r="AI66" s="133"/>
@@ -12533,15 +12624,15 @@
       <c r="AM66" s="133"/>
       <c r="AN66" s="133"/>
       <c r="AO66" s="134"/>
-      <c r="AP66" s="135" t="s">
-        <v>15</v>
+      <c r="AP66" s="135">
+        <v>44668</v>
       </c>
       <c r="AQ66" s="136"/>
       <c r="AR66" s="137"/>
     </row>
     <row r="67" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="118"/>
       <c r="D67" s="118"/>
@@ -12566,7 +12657,7 @@
       <c r="W67" s="118"/>
       <c r="X67" s="118"/>
       <c r="Y67" s="169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z67" s="169"/>
       <c r="AA67" s="169"/>
@@ -12581,7 +12672,7 @@
       <c r="AJ67" s="169"/>
       <c r="AK67" s="169"/>
       <c r="AL67" s="169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM67" s="169"/>
       <c r="AN67" s="169"/>
@@ -12592,7 +12683,7 @@
     </row>
     <row r="68" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="161" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" s="162"/>
       <c r="D68" s="162"/>
@@ -12639,12 +12730,12 @@
     </row>
     <row r="69" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="149"/>
       <c r="D69" s="149"/>
       <c r="E69" s="147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F69" s="147"/>
       <c r="G69" s="147"/>
@@ -12660,7 +12751,7 @@
       <c r="Q69" s="147"/>
       <c r="R69" s="147"/>
       <c r="S69" s="147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T69" s="147"/>
       <c r="U69" s="147"/>
@@ -12672,7 +12763,7 @@
       <c r="AA69" s="147"/>
       <c r="AB69" s="147"/>
       <c r="AC69" s="147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD69" s="147"/>
       <c r="AE69" s="147"/>
@@ -12698,7 +12789,7 @@
       <c r="F70" s="139"/>
       <c r="G70" s="139"/>
       <c r="H70" s="220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I70" s="220"/>
       <c r="J70" s="220"/>
@@ -12712,7 +12803,7 @@
       <c r="R70" s="180"/>
       <c r="S70" s="6"/>
       <c r="T70" s="216" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U70" s="216"/>
       <c r="V70" s="216"/>
@@ -12725,7 +12816,7 @@
       <c r="AC70" s="139"/>
       <c r="AD70" s="139"/>
       <c r="AE70" s="216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF70" s="216"/>
       <c r="AG70" s="216"/>
@@ -13315,232 +13406,232 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
       <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
       <c r="M1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" t="str">
         <f>MID(B2,8,2)</f>
         <v>03</v>
       </c>
       <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">MID(B3,8,2)</f>
         <v>02</v>
       </c>
       <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>94</v>
       </c>
-      <c r="F3" t="s">
-        <v>95</v>
-      </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>97</v>
       </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
         <v>104</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>105</v>
       </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>02</v>
       </c>
       <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
         <v>107</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>108</v>
       </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -13549,19 +13640,19 @@
         <v/>
       </c>
       <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
         <v>110</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>111</v>
       </c>
-      <c r="F9" t="s">
-        <v>112</v>
-      </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -13570,16 +13661,16 @@
         <v/>
       </c>
       <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
         <v>113</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
       <c r="K10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -13588,16 +13679,16 @@
         <v/>
       </c>
       <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
         <v>116</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>117</v>
       </c>
-      <c r="F11" t="s">
-        <v>118</v>
-      </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -13606,7 +13697,7 @@
         <v/>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -13615,7 +13706,7 @@
         <v/>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
